--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.92151321903161</v>
+        <v>1.0664485</v>
       </c>
       <c r="H2">
-        <v>0.92151321903161</v>
+        <v>2.132897</v>
       </c>
       <c r="I2">
-        <v>0.05516161996467391</v>
+        <v>0.05919991215896408</v>
       </c>
       <c r="J2">
-        <v>0.05516161996467391</v>
+        <v>0.04426563970404137</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.29626612905752</v>
+        <v>7.5957635</v>
       </c>
       <c r="N2">
-        <v>7.29626612905752</v>
+        <v>15.191527</v>
       </c>
       <c r="O2">
-        <v>0.1270166114533288</v>
+        <v>0.1268077702461478</v>
       </c>
       <c r="P2">
-        <v>0.1270166114533288</v>
+        <v>0.09750189942720215</v>
       </c>
       <c r="Q2">
-        <v>6.723605687499099</v>
+        <v>8.10049059092975</v>
       </c>
       <c r="R2">
-        <v>6.723605687499099</v>
+        <v>32.401962363719</v>
       </c>
       <c r="S2">
-        <v>0.007006442050189168</v>
+        <v>0.007507008859646048</v>
       </c>
       <c r="T2">
-        <v>0.007006442050189168</v>
+        <v>0.004315983950504208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.92151321903161</v>
+        <v>1.0664485</v>
       </c>
       <c r="H3">
-        <v>0.92151321903161</v>
+        <v>2.132897</v>
       </c>
       <c r="I3">
-        <v>0.05516161996467391</v>
+        <v>0.05919991215896408</v>
       </c>
       <c r="J3">
-        <v>0.05516161996467391</v>
+        <v>0.04426563970404137</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.632855999202</v>
+        <v>29.34977266666667</v>
       </c>
       <c r="N3">
-        <v>27.632855999202</v>
+        <v>88.049318</v>
       </c>
       <c r="O3">
-        <v>0.4810449169087258</v>
+        <v>0.4899809254318325</v>
       </c>
       <c r="P3">
-        <v>0.4810449169087258</v>
+        <v>0.5651160510901728</v>
       </c>
       <c r="Q3">
-        <v>25.46404208286157</v>
+        <v>31.30002103570767</v>
       </c>
       <c r="R3">
-        <v>25.46404208286157</v>
+        <v>187.800126214246</v>
       </c>
       <c r="S3">
-        <v>0.02653521689245726</v>
+        <v>0.02900682774513241</v>
       </c>
       <c r="T3">
-        <v>0.02653521689245726</v>
+        <v>0.02501522350852823</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.92151321903161</v>
+        <v>1.0664485</v>
       </c>
       <c r="H4">
-        <v>0.92151321903161</v>
+        <v>2.132897</v>
       </c>
       <c r="I4">
-        <v>0.05516161996467391</v>
+        <v>0.05919991215896408</v>
       </c>
       <c r="J4">
-        <v>0.05516161996467391</v>
+        <v>0.04426563970404137</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.292440063105835</v>
+        <v>0.3022816666666667</v>
       </c>
       <c r="N4">
-        <v>0.292440063105835</v>
+        <v>0.906845</v>
       </c>
       <c r="O4">
-        <v>0.005090925305064068</v>
+        <v>0.005046453083523374</v>
       </c>
       <c r="P4">
-        <v>0.005090925305064068</v>
+        <v>0.00582029113900539</v>
       </c>
       <c r="Q4">
-        <v>0.2694873839264652</v>
+        <v>0.3223678299941666</v>
       </c>
       <c r="R4">
-        <v>0.2694873839264652</v>
+        <v>1.934206979965</v>
       </c>
       <c r="S4">
-        <v>0.0002808236869464857</v>
+        <v>0.0002987495792589172</v>
       </c>
       <c r="T4">
-        <v>0.0002808236869464857</v>
+        <v>0.0002576389105318371</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.92151321903161</v>
+        <v>1.0664485</v>
       </c>
       <c r="H5">
-        <v>0.92151321903161</v>
+        <v>2.132897</v>
       </c>
       <c r="I5">
-        <v>0.05516161996467391</v>
+        <v>0.05919991215896408</v>
       </c>
       <c r="J5">
-        <v>0.05516161996467391</v>
+        <v>0.04426563970404137</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.558313428228656</v>
+        <v>0.7729826666666667</v>
       </c>
       <c r="N5">
-        <v>0.558313428228656</v>
+        <v>2.318948</v>
       </c>
       <c r="O5">
-        <v>0.009719365841121732</v>
+        <v>0.01290458930151278</v>
       </c>
       <c r="P5">
-        <v>0.009719365841121732</v>
+        <v>0.01488341722809771</v>
       </c>
       <c r="Q5">
-        <v>0.5144932044755626</v>
+        <v>0.8243462053926667</v>
       </c>
       <c r="R5">
-        <v>0.5144932044755626</v>
+        <v>4.946077232356</v>
       </c>
       <c r="S5">
-        <v>0.0005361359648255902</v>
+        <v>0.0007639505530970645</v>
       </c>
       <c r="T5">
-        <v>0.0005361359648255902</v>
+        <v>0.0006588239845838955</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.92151321903161</v>
+        <v>1.0664485</v>
       </c>
       <c r="H6">
-        <v>0.92151321903161</v>
+        <v>2.132897</v>
       </c>
       <c r="I6">
-        <v>0.05516161996467391</v>
+        <v>0.05919991215896408</v>
       </c>
       <c r="J6">
-        <v>0.05516161996467391</v>
+        <v>0.04426563970404137</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.38768294305071</v>
+        <v>5.582807</v>
       </c>
       <c r="N6">
-        <v>5.38768294305071</v>
+        <v>16.748421</v>
       </c>
       <c r="O6">
-        <v>0.09379115549059544</v>
+        <v>0.09320238938252692</v>
       </c>
       <c r="P6">
-        <v>0.09379115549059544</v>
+        <v>0.1074943196892874</v>
       </c>
       <c r="Q6">
-        <v>4.964821051972359</v>
+        <v>5.9537761509395</v>
       </c>
       <c r="R6">
-        <v>4.964821051972359</v>
+        <v>35.722656905637</v>
       </c>
       <c r="S6">
-        <v>0.005173672075219864</v>
+        <v>0.00551757326445116</v>
       </c>
       <c r="T6">
-        <v>0.005173672075219864</v>
+        <v>0.004758304825597034</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.92151321903161</v>
+        <v>1.0664485</v>
       </c>
       <c r="H7">
-        <v>0.92151321903161</v>
+        <v>2.132897</v>
       </c>
       <c r="I7">
-        <v>0.05516161996467391</v>
+        <v>0.05919991215896408</v>
       </c>
       <c r="J7">
-        <v>0.05516161996467391</v>
+        <v>0.04426563970404137</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.2758423088899</v>
+        <v>16.2962195</v>
       </c>
       <c r="N7">
-        <v>16.2758423088899</v>
+        <v>32.592439</v>
       </c>
       <c r="O7">
-        <v>0.2833370250011641</v>
+        <v>0.2720578725544566</v>
       </c>
       <c r="P7">
-        <v>0.2833370250011641</v>
+        <v>0.2091840214262345</v>
       </c>
       <c r="Q7">
-        <v>14.998403838516</v>
+        <v>17.37907884144575</v>
       </c>
       <c r="R7">
-        <v>14.998403838516</v>
+        <v>69.51631536578299</v>
       </c>
       <c r="S7">
-        <v>0.01562932929503552</v>
+        <v>0.01610580215737848</v>
       </c>
       <c r="T7">
-        <v>0.01562932929503552</v>
+        <v>0.009259664524296168</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.30285224697691</v>
+        <v>2.4368</v>
       </c>
       <c r="H8">
-        <v>2.30285224697691</v>
+        <v>7.3104</v>
       </c>
       <c r="I8">
-        <v>0.1378483323505946</v>
+        <v>0.1352698662419833</v>
       </c>
       <c r="J8">
-        <v>0.1378483323505946</v>
+        <v>0.1517183119918233</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.29626612905752</v>
+        <v>7.5957635</v>
       </c>
       <c r="N8">
-        <v>7.29626612905752</v>
+        <v>15.191527</v>
       </c>
       <c r="O8">
-        <v>0.1270166114533288</v>
+        <v>0.1268077702461478</v>
       </c>
       <c r="P8">
-        <v>0.1270166114533288</v>
+        <v>0.09750189942720215</v>
       </c>
       <c r="Q8">
-        <v>16.80222284984163</v>
+        <v>18.5093564968</v>
       </c>
       <c r="R8">
-        <v>16.80222284984163</v>
+        <v>111.0561389808</v>
       </c>
       <c r="S8">
-        <v>0.01750902806966481</v>
+        <v>0.01715327011964056</v>
       </c>
       <c r="T8">
-        <v>0.01750902806966481</v>
+        <v>0.01479282359709164</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.30285224697691</v>
+        <v>2.4368</v>
       </c>
       <c r="H9">
-        <v>2.30285224697691</v>
+        <v>7.3104</v>
       </c>
       <c r="I9">
-        <v>0.1378483323505946</v>
+        <v>0.1352698662419833</v>
       </c>
       <c r="J9">
-        <v>0.1378483323505946</v>
+        <v>0.1517183119918233</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.632855999202</v>
+        <v>29.34977266666667</v>
       </c>
       <c r="N9">
-        <v>27.632855999202</v>
+        <v>88.049318</v>
       </c>
       <c r="O9">
-        <v>0.4810449169087258</v>
+        <v>0.4899809254318325</v>
       </c>
       <c r="P9">
-        <v>0.4810449169087258</v>
+        <v>0.5651160510901728</v>
       </c>
       <c r="Q9">
-        <v>63.63438452815172</v>
+        <v>71.51952603413334</v>
       </c>
       <c r="R9">
-        <v>63.63438452815172</v>
+        <v>643.6757343071999</v>
       </c>
       <c r="S9">
-        <v>0.06631123958159821</v>
+        <v>0.06627965424428715</v>
       </c>
       <c r="T9">
-        <v>0.06631123958159821</v>
+        <v>0.08573845335088602</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.30285224697691</v>
+        <v>2.4368</v>
       </c>
       <c r="H10">
-        <v>2.30285224697691</v>
+        <v>7.3104</v>
       </c>
       <c r="I10">
-        <v>0.1378483323505946</v>
+        <v>0.1352698662419833</v>
       </c>
       <c r="J10">
-        <v>0.1378483323505946</v>
+        <v>0.1517183119918233</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.292440063105835</v>
+        <v>0.3022816666666667</v>
       </c>
       <c r="N10">
-        <v>0.292440063105835</v>
+        <v>0.906845</v>
       </c>
       <c r="O10">
-        <v>0.005090925305064068</v>
+        <v>0.005046453083523374</v>
       </c>
       <c r="P10">
-        <v>0.005090925305064068</v>
+        <v>0.00582029113900539</v>
       </c>
       <c r="Q10">
-        <v>0.6734462564293415</v>
+        <v>0.7365999653333333</v>
       </c>
       <c r="R10">
-        <v>0.6734462564293415</v>
+        <v>6.629399687999999</v>
       </c>
       <c r="S10">
-        <v>0.000701775563424524</v>
+        <v>0.0006826330336046508</v>
       </c>
       <c r="T10">
-        <v>0.000701775563424524</v>
+        <v>0.0008830447469108646</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.30285224697691</v>
+        <v>2.4368</v>
       </c>
       <c r="H11">
-        <v>2.30285224697691</v>
+        <v>7.3104</v>
       </c>
       <c r="I11">
-        <v>0.1378483323505946</v>
+        <v>0.1352698662419833</v>
       </c>
       <c r="J11">
-        <v>0.1378483323505946</v>
+        <v>0.1517183119918233</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.558313428228656</v>
+        <v>0.7729826666666667</v>
       </c>
       <c r="N11">
-        <v>0.558313428228656</v>
+        <v>2.318948</v>
       </c>
       <c r="O11">
-        <v>0.009719365841121732</v>
+        <v>0.01290458930151278</v>
       </c>
       <c r="P11">
-        <v>0.009719365841121732</v>
+        <v>0.01488341722809771</v>
       </c>
       <c r="Q11">
-        <v>1.285713332713742</v>
+        <v>1.883604162133333</v>
       </c>
       <c r="R11">
-        <v>1.285713332713742</v>
+        <v>16.9524374592</v>
       </c>
       <c r="S11">
-        <v>0.001339798372703965</v>
+        <v>0.001745602068723362</v>
       </c>
       <c r="T11">
-        <v>0.001339798372703965</v>
+        <v>0.002258086938517007</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.30285224697691</v>
+        <v>2.4368</v>
       </c>
       <c r="H12">
-        <v>2.30285224697691</v>
+        <v>7.3104</v>
       </c>
       <c r="I12">
-        <v>0.1378483323505946</v>
+        <v>0.1352698662419833</v>
       </c>
       <c r="J12">
-        <v>0.1378483323505946</v>
+        <v>0.1517183119918233</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.38768294305071</v>
+        <v>5.582807</v>
       </c>
       <c r="N12">
-        <v>5.38768294305071</v>
+        <v>16.748421</v>
       </c>
       <c r="O12">
-        <v>0.09379115549059544</v>
+        <v>0.09320238938252692</v>
       </c>
       <c r="P12">
-        <v>0.09379115549059544</v>
+        <v>0.1074943196892874</v>
       </c>
       <c r="Q12">
-        <v>12.4070377714035</v>
+        <v>13.6041840976</v>
       </c>
       <c r="R12">
-        <v>12.4070377714035</v>
+        <v>122.4376568784</v>
       </c>
       <c r="S12">
-        <v>0.0129289543736139</v>
+        <v>0.01260747474520766</v>
       </c>
       <c r="T12">
-        <v>0.0129289543736139</v>
+        <v>0.0163088567319681</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.30285224697691</v>
+        <v>2.4368</v>
       </c>
       <c r="H13">
-        <v>2.30285224697691</v>
+        <v>7.3104</v>
       </c>
       <c r="I13">
-        <v>0.1378483323505946</v>
+        <v>0.1352698662419833</v>
       </c>
       <c r="J13">
-        <v>0.1378483323505946</v>
+        <v>0.1517183119918233</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.2758423088899</v>
+        <v>16.2962195</v>
       </c>
       <c r="N13">
-        <v>16.2758423088899</v>
+        <v>32.592439</v>
       </c>
       <c r="O13">
-        <v>0.2833370250011641</v>
+        <v>0.2720578725544566</v>
       </c>
       <c r="P13">
-        <v>0.2833370250011641</v>
+        <v>0.2091840214262345</v>
       </c>
       <c r="Q13">
-        <v>37.48086003246897</v>
+        <v>39.71062767759999</v>
       </c>
       <c r="R13">
-        <v>37.48086003246897</v>
+        <v>238.2637660656</v>
       </c>
       <c r="S13">
-        <v>0.0390575363895892</v>
+        <v>0.03680123203051987</v>
       </c>
       <c r="T13">
-        <v>0.0390575363895892</v>
+        <v>0.03173704662644971</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.41864556736625</v>
+        <v>4.084561333333333</v>
       </c>
       <c r="H14">
-        <v>3.41864556736625</v>
+        <v>12.253684</v>
       </c>
       <c r="I14">
-        <v>0.204639525170507</v>
+        <v>0.2267391928829517</v>
       </c>
       <c r="J14">
-        <v>0.204639525170507</v>
+        <v>0.2543100585687806</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.29626612905752</v>
+        <v>7.5957635</v>
       </c>
       <c r="N14">
-        <v>7.29626612905752</v>
+        <v>15.191527</v>
       </c>
       <c r="O14">
-        <v>0.1270166114533288</v>
+        <v>0.1268077702461478</v>
       </c>
       <c r="P14">
-        <v>0.1270166114533288</v>
+        <v>0.09750189942720215</v>
       </c>
       <c r="Q14">
-        <v>24.943347860427</v>
+        <v>31.02536188924467</v>
       </c>
       <c r="R14">
-        <v>24.943347860427</v>
+        <v>186.152171335468</v>
       </c>
       <c r="S14">
-        <v>0.02599261905657598</v>
+        <v>0.02875229147689833</v>
       </c>
       <c r="T14">
-        <v>0.02599261905657598</v>
+        <v>0.02479571375389914</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.41864556736625</v>
+        <v>4.084561333333333</v>
       </c>
       <c r="H15">
-        <v>3.41864556736625</v>
+        <v>12.253684</v>
       </c>
       <c r="I15">
-        <v>0.204639525170507</v>
+        <v>0.2267391928829517</v>
       </c>
       <c r="J15">
-        <v>0.204639525170507</v>
+        <v>0.2543100585687806</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.632855999202</v>
+        <v>29.34977266666667</v>
       </c>
       <c r="N15">
-        <v>27.632855999202</v>
+        <v>88.049318</v>
       </c>
       <c r="O15">
-        <v>0.4810449169087258</v>
+        <v>0.4899809254318325</v>
       </c>
       <c r="P15">
-        <v>0.4810449169087258</v>
+        <v>0.5651160510901728</v>
       </c>
       <c r="Q15">
-        <v>94.46694067534182</v>
+        <v>119.8809465763902</v>
       </c>
       <c r="R15">
-        <v>94.46694067534182</v>
+        <v>1078.928519187512</v>
       </c>
       <c r="S15">
-        <v>0.09844080338188764</v>
+        <v>0.1110978795604554</v>
       </c>
       <c r="T15">
-        <v>0.09844080338188764</v>
+        <v>0.1437146960508999</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.41864556736625</v>
+        <v>4.084561333333333</v>
       </c>
       <c r="H16">
-        <v>3.41864556736625</v>
+        <v>12.253684</v>
       </c>
       <c r="I16">
-        <v>0.204639525170507</v>
+        <v>0.2267391928829517</v>
       </c>
       <c r="J16">
-        <v>0.204639525170507</v>
+        <v>0.2543100585687806</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.292440063105835</v>
+        <v>0.3022816666666667</v>
       </c>
       <c r="N16">
-        <v>0.292440063105835</v>
+        <v>0.906845</v>
       </c>
       <c r="O16">
-        <v>0.005090925305064068</v>
+        <v>0.005046453083523374</v>
       </c>
       <c r="P16">
-        <v>0.005090925305064068</v>
+        <v>0.00582029113900539</v>
       </c>
       <c r="Q16">
-        <v>0.9997489254570692</v>
+        <v>1.234688007442222</v>
       </c>
       <c r="R16">
-        <v>0.9997489254570692</v>
+        <v>11.11219206698</v>
       </c>
       <c r="S16">
-        <v>0.001041804537106829</v>
+        <v>0.001144228699079773</v>
       </c>
       <c r="T16">
-        <v>0.001041804537106829</v>
+        <v>0.001480158580447816</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.41864556736625</v>
+        <v>4.084561333333333</v>
       </c>
       <c r="H17">
-        <v>3.41864556736625</v>
+        <v>12.253684</v>
       </c>
       <c r="I17">
-        <v>0.204639525170507</v>
+        <v>0.2267391928829517</v>
       </c>
       <c r="J17">
-        <v>0.204639525170507</v>
+        <v>0.2543100585687806</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.558313428228656</v>
+        <v>0.7729826666666667</v>
       </c>
       <c r="N17">
-        <v>0.558313428228656</v>
+        <v>2.318948</v>
       </c>
       <c r="O17">
-        <v>0.009719365841121732</v>
+        <v>0.01290458930151278</v>
       </c>
       <c r="P17">
-        <v>0.009719365841121732</v>
+        <v>0.01488341722809771</v>
       </c>
       <c r="Q17">
-        <v>1.90867572661495</v>
+        <v>3.157295111603556</v>
       </c>
       <c r="R17">
-        <v>1.90867572661495</v>
+        <v>28.415656004432</v>
       </c>
       <c r="S17">
-        <v>0.001988966410685597</v>
+        <v>0.002925976162710983</v>
       </c>
       <c r="T17">
-        <v>0.001988966410685597</v>
+        <v>0.003785002706981129</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.41864556736625</v>
+        <v>4.084561333333333</v>
       </c>
       <c r="H18">
-        <v>3.41864556736625</v>
+        <v>12.253684</v>
       </c>
       <c r="I18">
-        <v>0.204639525170507</v>
+        <v>0.2267391928829517</v>
       </c>
       <c r="J18">
-        <v>0.204639525170507</v>
+        <v>0.2543100585687806</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.38768294305071</v>
+        <v>5.582807</v>
       </c>
       <c r="N18">
-        <v>5.38768294305071</v>
+        <v>16.748421</v>
       </c>
       <c r="O18">
-        <v>0.09379115549059544</v>
+        <v>0.09320238938252692</v>
       </c>
       <c r="P18">
-        <v>0.09379115549059544</v>
+        <v>0.1074943196892874</v>
       </c>
       <c r="Q18">
-        <v>18.41857841163506</v>
+        <v>22.80331760366267</v>
       </c>
       <c r="R18">
-        <v>18.41857841163506</v>
+        <v>205.229858432964</v>
       </c>
       <c r="S18">
-        <v>0.01919337752478864</v>
+        <v>0.02113263454335674</v>
       </c>
       <c r="T18">
-        <v>0.01919337752478864</v>
+        <v>0.0273368867359939</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.41864556736625</v>
+        <v>4.084561333333333</v>
       </c>
       <c r="H19">
-        <v>3.41864556736625</v>
+        <v>12.253684</v>
       </c>
       <c r="I19">
-        <v>0.204639525170507</v>
+        <v>0.2267391928829517</v>
       </c>
       <c r="J19">
-        <v>0.204639525170507</v>
+        <v>0.2543100585687806</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.2758423088899</v>
+        <v>16.2962195</v>
       </c>
       <c r="N19">
-        <v>16.2758423088899</v>
+        <v>32.592439</v>
       </c>
       <c r="O19">
-        <v>0.2833370250011641</v>
+        <v>0.2720578725544566</v>
       </c>
       <c r="P19">
-        <v>0.2833370250011641</v>
+        <v>0.2091840214262345</v>
       </c>
       <c r="Q19">
-        <v>55.64133616443853</v>
+        <v>66.56290804921267</v>
       </c>
       <c r="R19">
-        <v>55.64133616443853</v>
+        <v>399.377448295276</v>
       </c>
       <c r="S19">
-        <v>0.05798195425946229</v>
+        <v>0.06168618244045044</v>
       </c>
       <c r="T19">
-        <v>0.05798195425946229</v>
+        <v>0.05319760074055877</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.62859126604531</v>
+        <v>4.804119</v>
       </c>
       <c r="H20">
-        <v>4.62859126604531</v>
+        <v>14.412357</v>
       </c>
       <c r="I20">
-        <v>0.2770666628718673</v>
+        <v>0.2666827538331297</v>
       </c>
       <c r="J20">
-        <v>0.2770666628718673</v>
+        <v>0.2991106472783349</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.29626612905752</v>
+        <v>7.5957635</v>
       </c>
       <c r="N20">
-        <v>7.29626612905752</v>
+        <v>15.191527</v>
       </c>
       <c r="O20">
-        <v>0.1270166114533288</v>
+        <v>0.1268077702461478</v>
       </c>
       <c r="P20">
-        <v>0.1270166114533288</v>
+        <v>0.09750189942720215</v>
       </c>
       <c r="Q20">
-        <v>33.77143367969786</v>
+        <v>36.4909517498565</v>
       </c>
       <c r="R20">
-        <v>33.77143367969786</v>
+        <v>218.945710499139</v>
       </c>
       <c r="S20">
-        <v>0.0351920686646664</v>
+        <v>0.03381744537668149</v>
       </c>
       <c r="T20">
-        <v>0.0351920686646664</v>
+        <v>0.02916385624853754</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.62859126604531</v>
+        <v>4.804119</v>
       </c>
       <c r="H21">
-        <v>4.62859126604531</v>
+        <v>14.412357</v>
       </c>
       <c r="I21">
-        <v>0.2770666628718673</v>
+        <v>0.2666827538331297</v>
       </c>
       <c r="J21">
-        <v>0.2770666628718673</v>
+        <v>0.2991106472783349</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>27.632855999202</v>
+        <v>29.34977266666667</v>
       </c>
       <c r="N21">
-        <v>27.632855999202</v>
+        <v>88.049318</v>
       </c>
       <c r="O21">
-        <v>0.4810449169087258</v>
+        <v>0.4899809254318325</v>
       </c>
       <c r="P21">
-        <v>0.4810449169087258</v>
+        <v>0.5651160510901728</v>
       </c>
       <c r="Q21">
-        <v>127.9011959337941</v>
+        <v>140.999800513614</v>
       </c>
       <c r="R21">
-        <v>127.9011959337941</v>
+        <v>1268.998204622526</v>
       </c>
       <c r="S21">
-        <v>0.1332815098193753</v>
+        <v>0.1306694625198664</v>
       </c>
       <c r="T21">
-        <v>0.1332815098193753</v>
+        <v>0.1690322278289582</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.62859126604531</v>
+        <v>4.804119</v>
       </c>
       <c r="H22">
-        <v>4.62859126604531</v>
+        <v>14.412357</v>
       </c>
       <c r="I22">
-        <v>0.2770666628718673</v>
+        <v>0.2666827538331297</v>
       </c>
       <c r="J22">
-        <v>0.2770666628718673</v>
+        <v>0.2991106472783349</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.292440063105835</v>
+        <v>0.3022816666666667</v>
       </c>
       <c r="N22">
-        <v>0.292440063105835</v>
+        <v>0.906845</v>
       </c>
       <c r="O22">
-        <v>0.005090925305064068</v>
+        <v>0.005046453083523374</v>
       </c>
       <c r="P22">
-        <v>0.005090925305064068</v>
+        <v>0.00582029113900539</v>
       </c>
       <c r="Q22">
-        <v>1.353585521933407</v>
+        <v>1.452197098185</v>
       </c>
       <c r="R22">
-        <v>1.353585521933407</v>
+        <v>13.069773883665</v>
       </c>
       <c r="S22">
-        <v>0.001410525685204044</v>
+        <v>0.001345802005403702</v>
       </c>
       <c r="T22">
-        <v>0.001410525685204044</v>
+        <v>0.001740911049936259</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.62859126604531</v>
+        <v>4.804119</v>
       </c>
       <c r="H23">
-        <v>4.62859126604531</v>
+        <v>14.412357</v>
       </c>
       <c r="I23">
-        <v>0.2770666628718673</v>
+        <v>0.2666827538331297</v>
       </c>
       <c r="J23">
-        <v>0.2770666628718673</v>
+        <v>0.2991106472783349</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.558313428228656</v>
+        <v>0.7729826666666667</v>
       </c>
       <c r="N23">
-        <v>0.558313428228656</v>
+        <v>2.318948</v>
       </c>
       <c r="O23">
-        <v>0.009719365841121732</v>
+        <v>0.01290458930151278</v>
       </c>
       <c r="P23">
-        <v>0.009719365841121732</v>
+        <v>0.01488341722809771</v>
       </c>
       <c r="Q23">
-        <v>2.584204657614972</v>
+        <v>3.713500715604</v>
       </c>
       <c r="R23">
-        <v>2.584204657614972</v>
+        <v>33.421506440436</v>
       </c>
       <c r="S23">
-        <v>0.002692912258830418</v>
+        <v>0.003441431412012973</v>
       </c>
       <c r="T23">
-        <v>0.002692912258830418</v>
+        <v>0.004451788560809827</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.62859126604531</v>
+        <v>4.804119</v>
       </c>
       <c r="H24">
-        <v>4.62859126604531</v>
+        <v>14.412357</v>
       </c>
       <c r="I24">
-        <v>0.2770666628718673</v>
+        <v>0.2666827538331297</v>
       </c>
       <c r="J24">
-        <v>0.2770666628718673</v>
+        <v>0.2991106472783349</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.38768294305071</v>
+        <v>5.582807</v>
       </c>
       <c r="N24">
-        <v>5.38768294305071</v>
+        <v>16.748421</v>
       </c>
       <c r="O24">
-        <v>0.09379115549059544</v>
+        <v>0.09320238938252692</v>
       </c>
       <c r="P24">
-        <v>0.09379115549059544</v>
+        <v>0.1074943196892874</v>
       </c>
       <c r="Q24">
-        <v>24.93738221442581</v>
+        <v>26.820469182033</v>
       </c>
       <c r="R24">
-        <v>24.93738221442581</v>
+        <v>241.384222638297</v>
       </c>
       <c r="S24">
-        <v>0.02598640245867569</v>
+        <v>0.02485546986435993</v>
       </c>
       <c r="T24">
-        <v>0.02598640245867569</v>
+        <v>0.032152695541007</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.62859126604531</v>
+        <v>4.804119</v>
       </c>
       <c r="H25">
-        <v>4.62859126604531</v>
+        <v>14.412357</v>
       </c>
       <c r="I25">
-        <v>0.2770666628718673</v>
+        <v>0.2666827538331297</v>
       </c>
       <c r="J25">
-        <v>0.2770666628718673</v>
+        <v>0.2991106472783349</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.2758423088899</v>
+        <v>16.2962195</v>
       </c>
       <c r="N25">
-        <v>16.2758423088899</v>
+        <v>32.592439</v>
       </c>
       <c r="O25">
-        <v>0.2833370250011641</v>
+        <v>0.2720578725544566</v>
       </c>
       <c r="P25">
-        <v>0.2833370250011641</v>
+        <v>0.2091840214262345</v>
       </c>
       <c r="Q25">
-        <v>75.33422155845852</v>
+        <v>78.2889777281205</v>
       </c>
       <c r="R25">
-        <v>75.33422155845852</v>
+        <v>469.733866368723</v>
       </c>
       <c r="S25">
-        <v>0.07850324398511535</v>
+        <v>0.07255314265480513</v>
       </c>
       <c r="T25">
-        <v>0.07850324398511535</v>
+        <v>0.06256916804908608</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.6584878496657151</v>
+        <v>0.8298326666666666</v>
       </c>
       <c r="H26">
-        <v>0.6584878496657151</v>
+        <v>2.489498</v>
       </c>
       <c r="I26">
-        <v>0.03941696740149479</v>
+        <v>0.04606506640808776</v>
       </c>
       <c r="J26">
-        <v>0.03941696740149479</v>
+        <v>0.05166645248782833</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.29626612905752</v>
+        <v>7.5957635</v>
       </c>
       <c r="N26">
-        <v>7.29626612905752</v>
+        <v>15.191527</v>
       </c>
       <c r="O26">
-        <v>0.1270166114533288</v>
+        <v>0.1268077702461478</v>
       </c>
       <c r="P26">
-        <v>0.1270166114533288</v>
+        <v>0.09750189942720215</v>
       </c>
       <c r="Q26">
-        <v>4.804502593911877</v>
+        <v>6.303212680574333</v>
       </c>
       <c r="R26">
-        <v>4.804502593911877</v>
+        <v>37.819276083446</v>
       </c>
       <c r="S26">
-        <v>0.005006609633104189</v>
+        <v>0.005841408357450333</v>
       </c>
       <c r="T26">
-        <v>0.005006609633104189</v>
+        <v>0.005037577254228556</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.6584878496657151</v>
+        <v>0.8298326666666666</v>
       </c>
       <c r="H27">
-        <v>0.6584878496657151</v>
+        <v>2.489498</v>
       </c>
       <c r="I27">
-        <v>0.03941696740149479</v>
+        <v>0.04606506640808776</v>
       </c>
       <c r="J27">
-        <v>0.03941696740149479</v>
+        <v>0.05166645248782833</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>27.632855999202</v>
+        <v>29.34977266666667</v>
       </c>
       <c r="N27">
-        <v>27.632855999202</v>
+        <v>88.049318</v>
       </c>
       <c r="O27">
-        <v>0.4810449169087258</v>
+        <v>0.4899809254318325</v>
       </c>
       <c r="P27">
-        <v>0.4810449169087258</v>
+        <v>0.5651160510901728</v>
       </c>
       <c r="Q27">
-        <v>18.19589992703688</v>
+        <v>24.35540011804044</v>
       </c>
       <c r="R27">
-        <v>18.19589992703688</v>
+        <v>219.198601062364</v>
       </c>
       <c r="S27">
-        <v>0.01896133180844601</v>
+        <v>0.02257100386871366</v>
       </c>
       <c r="T27">
-        <v>0.01896133180844601</v>
+        <v>0.02919754160375958</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.6584878496657151</v>
+        <v>0.8298326666666666</v>
       </c>
       <c r="H28">
-        <v>0.6584878496657151</v>
+        <v>2.489498</v>
       </c>
       <c r="I28">
-        <v>0.03941696740149479</v>
+        <v>0.04606506640808776</v>
       </c>
       <c r="J28">
-        <v>0.03941696740149479</v>
+        <v>0.05166645248782833</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.292440063105835</v>
+        <v>0.3022816666666667</v>
       </c>
       <c r="N28">
-        <v>0.292440063105835</v>
+        <v>0.906845</v>
       </c>
       <c r="O28">
-        <v>0.005090925305064068</v>
+        <v>0.005046453083523374</v>
       </c>
       <c r="P28">
-        <v>0.005090925305064068</v>
+        <v>0.00582029113900539</v>
       </c>
       <c r="Q28">
-        <v>0.1925682283106673</v>
+        <v>0.2508432015344444</v>
       </c>
       <c r="R28">
-        <v>0.1925682283106673</v>
+        <v>2.25758881381</v>
       </c>
       <c r="S28">
-        <v>0.0002006688367931553</v>
+        <v>0.0002324651964178035</v>
       </c>
       <c r="T28">
-        <v>0.0002006688367931553</v>
+        <v>0.0003007137955987502</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.6584878496657151</v>
+        <v>0.8298326666666666</v>
       </c>
       <c r="H29">
-        <v>0.6584878496657151</v>
+        <v>2.489498</v>
       </c>
       <c r="I29">
-        <v>0.03941696740149479</v>
+        <v>0.04606506640808776</v>
       </c>
       <c r="J29">
-        <v>0.03941696740149479</v>
+        <v>0.05166645248782833</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.558313428228656</v>
+        <v>0.7729826666666667</v>
       </c>
       <c r="N29">
-        <v>0.558313428228656</v>
+        <v>2.318948</v>
       </c>
       <c r="O29">
-        <v>0.009719365841121732</v>
+        <v>0.01290458930151278</v>
       </c>
       <c r="P29">
-        <v>0.009719365841121732</v>
+        <v>0.01488341722809771</v>
       </c>
       <c r="Q29">
-        <v>0.3676426087937812</v>
+        <v>0.6414462675671111</v>
       </c>
       <c r="R29">
-        <v>0.3676426087937812</v>
+        <v>5.773016408104</v>
       </c>
       <c r="S29">
-        <v>0.0003831079265226973</v>
+        <v>0.0005944507631432853</v>
       </c>
       <c r="T29">
-        <v>0.0003831079265226973</v>
+        <v>0.0007689733690720361</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.6584878496657151</v>
+        <v>0.8298326666666666</v>
       </c>
       <c r="H30">
-        <v>0.6584878496657151</v>
+        <v>2.489498</v>
       </c>
       <c r="I30">
-        <v>0.03941696740149479</v>
+        <v>0.04606506640808776</v>
       </c>
       <c r="J30">
-        <v>0.03941696740149479</v>
+        <v>0.05166645248782833</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.38768294305071</v>
+        <v>5.582807</v>
       </c>
       <c r="N30">
-        <v>5.38768294305071</v>
+        <v>16.748421</v>
       </c>
       <c r="O30">
-        <v>0.09379115549059544</v>
+        <v>0.09320238938252692</v>
       </c>
       <c r="P30">
-        <v>0.09379115549059544</v>
+        <v>0.1074943196892874</v>
       </c>
       <c r="Q30">
-        <v>3.547723755850113</v>
+        <v>4.632795620295332</v>
       </c>
       <c r="R30">
-        <v>3.547723755850113</v>
+        <v>41.695160582658</v>
       </c>
       <c r="S30">
-        <v>0.003696962918521329</v>
+        <v>0.004293374256298556</v>
       </c>
       <c r="T30">
-        <v>0.003696962918521329</v>
+        <v>0.005553850160937995</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.6584878496657151</v>
+        <v>0.8298326666666666</v>
       </c>
       <c r="H31">
-        <v>0.6584878496657151</v>
+        <v>2.489498</v>
       </c>
       <c r="I31">
-        <v>0.03941696740149479</v>
+        <v>0.04606506640808776</v>
       </c>
       <c r="J31">
-        <v>0.03941696740149479</v>
+        <v>0.05166645248782833</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>16.2758423088899</v>
+        <v>16.2962195</v>
       </c>
       <c r="N31">
-        <v>16.2758423088899</v>
+        <v>32.592439</v>
       </c>
       <c r="O31">
-        <v>0.2833370250011641</v>
+        <v>0.2720578725544566</v>
       </c>
       <c r="P31">
-        <v>0.2833370250011641</v>
+        <v>0.2091840214262345</v>
       </c>
       <c r="Q31">
-        <v>10.71744440347918</v>
+        <v>13.52313528427033</v>
       </c>
       <c r="R31">
-        <v>10.71744440347918</v>
+        <v>81.13881170562199</v>
       </c>
       <c r="S31">
-        <v>0.0111682862781074</v>
+        <v>0.01253236396606412</v>
       </c>
       <c r="T31">
-        <v>0.0111682862781074</v>
+        <v>0.01080779630423141</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.77560521703574</v>
+        <v>4.792598</v>
       </c>
       <c r="H32">
-        <v>4.77560521703574</v>
+        <v>9.585196</v>
       </c>
       <c r="I32">
-        <v>0.2858668922408625</v>
+        <v>0.2660432084748837</v>
       </c>
       <c r="J32">
-        <v>0.2858668922408625</v>
+        <v>0.1989288899691914</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>7.29626612905752</v>
+        <v>7.5957635</v>
       </c>
       <c r="N32">
-        <v>7.29626612905752</v>
+        <v>15.191527</v>
       </c>
       <c r="O32">
-        <v>0.1270166114533288</v>
+        <v>0.1268077702461478</v>
       </c>
       <c r="P32">
-        <v>0.1270166114533288</v>
+        <v>0.09750189942720215</v>
       </c>
       <c r="Q32">
-        <v>34.84408659080826</v>
+        <v>36.403440958573</v>
       </c>
       <c r="R32">
-        <v>34.84408659080826</v>
+        <v>145.613763834292</v>
       </c>
       <c r="S32">
-        <v>0.03630984397912823</v>
+        <v>0.03373634605583104</v>
       </c>
       <c r="T32">
-        <v>0.03630984397912823</v>
+        <v>0.01939594462294107</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.77560521703574</v>
+        <v>4.792598</v>
       </c>
       <c r="H33">
-        <v>4.77560521703574</v>
+        <v>9.585196</v>
       </c>
       <c r="I33">
-        <v>0.2858668922408625</v>
+        <v>0.2660432084748837</v>
       </c>
       <c r="J33">
-        <v>0.2858668922408625</v>
+        <v>0.1989288899691914</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>27.632855999202</v>
+        <v>29.34977266666667</v>
       </c>
       <c r="N33">
-        <v>27.632855999202</v>
+        <v>88.049318</v>
       </c>
       <c r="O33">
-        <v>0.4810449169087258</v>
+        <v>0.4899809254318325</v>
       </c>
       <c r="P33">
-        <v>0.4810449169087258</v>
+        <v>0.5651160510901728</v>
       </c>
       <c r="Q33">
-        <v>131.9636112713864</v>
+        <v>140.6616617827213</v>
       </c>
       <c r="R33">
-        <v>131.9636112713864</v>
+        <v>843.969970696328</v>
       </c>
       <c r="S33">
-        <v>0.1375148154249614</v>
+        <v>0.1303560974933774</v>
       </c>
       <c r="T33">
-        <v>0.1375148154249614</v>
+        <v>0.112417908747141</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.77560521703574</v>
+        <v>4.792598</v>
       </c>
       <c r="H34">
-        <v>4.77560521703574</v>
+        <v>9.585196</v>
       </c>
       <c r="I34">
-        <v>0.2858668922408625</v>
+        <v>0.2660432084748837</v>
       </c>
       <c r="J34">
-        <v>0.2858668922408625</v>
+        <v>0.1989288899691914</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.292440063105835</v>
+        <v>0.3022816666666667</v>
       </c>
       <c r="N34">
-        <v>0.292440063105835</v>
+        <v>0.906845</v>
       </c>
       <c r="O34">
-        <v>0.005090925305064068</v>
+        <v>0.005046453083523374</v>
       </c>
       <c r="P34">
-        <v>0.005090925305064068</v>
+        <v>0.00582029113900539</v>
       </c>
       <c r="Q34">
-        <v>1.396578291038487</v>
+        <v>1.448714511103333</v>
       </c>
       <c r="R34">
-        <v>1.396578291038487</v>
+        <v>8.692287066620001</v>
       </c>
       <c r="S34">
-        <v>0.00145532699558903</v>
+        <v>0.001342574569758529</v>
       </c>
       <c r="T34">
-        <v>0.00145532699558903</v>
+        <v>0.001157824055579863</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.77560521703574</v>
+        <v>4.792598</v>
       </c>
       <c r="H35">
-        <v>4.77560521703574</v>
+        <v>9.585196</v>
       </c>
       <c r="I35">
-        <v>0.2858668922408625</v>
+        <v>0.2660432084748837</v>
       </c>
       <c r="J35">
-        <v>0.2858668922408625</v>
+        <v>0.1989288899691914</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.558313428228656</v>
+        <v>0.7729826666666667</v>
       </c>
       <c r="N35">
-        <v>0.558313428228656</v>
+        <v>2.318948</v>
       </c>
       <c r="O35">
-        <v>0.009719365841121732</v>
+        <v>0.01290458930151278</v>
       </c>
       <c r="P35">
-        <v>0.009719365841121732</v>
+        <v>0.01488341722809771</v>
       </c>
       <c r="Q35">
-        <v>2.666284520589879</v>
+        <v>3.704595182301333</v>
       </c>
       <c r="R35">
-        <v>2.666284520589879</v>
+        <v>22.227571093808</v>
       </c>
       <c r="S35">
-        <v>0.002778444907553466</v>
+        <v>0.003433178341825119</v>
       </c>
       <c r="T35">
-        <v>0.002778444907553466</v>
+        <v>0.002960741668133818</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.77560521703574</v>
+        <v>4.792598</v>
       </c>
       <c r="H36">
-        <v>4.77560521703574</v>
+        <v>9.585196</v>
       </c>
       <c r="I36">
-        <v>0.2858668922408625</v>
+        <v>0.2660432084748837</v>
       </c>
       <c r="J36">
-        <v>0.2858668922408625</v>
+        <v>0.1989288899691914</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.38768294305071</v>
+        <v>5.582807</v>
       </c>
       <c r="N36">
-        <v>5.38768294305071</v>
+        <v>16.748421</v>
       </c>
       <c r="O36">
-        <v>0.09379115549059544</v>
+        <v>0.09320238938252692</v>
       </c>
       <c r="P36">
-        <v>0.09379115549059544</v>
+        <v>0.1074943196892874</v>
       </c>
       <c r="Q36">
-        <v>25.72944677056744</v>
+        <v>26.756149662586</v>
       </c>
       <c r="R36">
-        <v>25.72944677056744</v>
+        <v>160.536897975516</v>
       </c>
       <c r="S36">
-        <v>0.02681178613977602</v>
+        <v>0.02479586270885289</v>
       </c>
       <c r="T36">
-        <v>0.02681178613977602</v>
+        <v>0.02138372569378333</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.77560521703574</v>
+        <v>4.792598</v>
       </c>
       <c r="H37">
-        <v>4.77560521703574</v>
+        <v>9.585196</v>
       </c>
       <c r="I37">
-        <v>0.2858668922408625</v>
+        <v>0.2660432084748837</v>
       </c>
       <c r="J37">
-        <v>0.2858668922408625</v>
+        <v>0.1989288899691914</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>16.2758423088899</v>
+        <v>16.2962195</v>
       </c>
       <c r="N37">
-        <v>16.2758423088899</v>
+        <v>32.592439</v>
       </c>
       <c r="O37">
-        <v>0.2833370250011641</v>
+        <v>0.2720578725544566</v>
       </c>
       <c r="P37">
-        <v>0.2833370250011641</v>
+        <v>0.2091840214262345</v>
       </c>
       <c r="Q37">
-        <v>77.72699744198563</v>
+        <v>78.101228983261</v>
       </c>
       <c r="R37">
-        <v>77.72699744198563</v>
+        <v>312.404915933044</v>
       </c>
       <c r="S37">
-        <v>0.08099667479385433</v>
+        <v>0.07237914930523863</v>
       </c>
       <c r="T37">
-        <v>0.08099667479385433</v>
+        <v>0.0416127451816124</v>
       </c>
     </row>
   </sheetData>
